--- a/doc/LoadOuts.xlsx
+++ b/doc/LoadOuts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="15090" windowHeight="12240"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="15090" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/doc/LoadOuts.xlsx
+++ b/doc/LoadOuts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>Check In</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Returned</t>
   </si>
   <si>
-    <t>Load Out:</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -178,6 +175,18 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>Check Out</t>
+  </si>
+  <si>
+    <t>Check Out:</t>
+  </si>
+  <si>
+    <t>12/34/56 C</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -352,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -397,7 +406,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,6 +425,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L75"/>
+  <dimension ref="A2:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,34 +754,34 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="9"/>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -777,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>21</v>
@@ -786,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>21</v>
@@ -826,19 +844,19 @@
         <v>123456</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -855,19 +873,19 @@
         <v>123456</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -884,19 +902,19 @@
         <v>123456</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -918,34 +936,31 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="21"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="F15" s="17" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="1"/>
+      <c r="K15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="L15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -956,13 +971,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -970,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1000,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -1011,10 +1026,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>80</v>
@@ -1028,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -1043,13 +1058,13 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
       <c r="F26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="H26" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,9 +1080,7 @@
       <c r="D29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1085,13 +1098,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>20</v>
@@ -1101,16 +1114,16 @@
       <c r="B32" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="32"/>
+      <c r="H32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
         <v>5</v>
       </c>
@@ -1118,20 +1131,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>123456</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33">
+      <c r="H33">
         <v>100</v>
       </c>
       <c r="I33">
@@ -1141,20 +1157,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>123456</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34">
+      <c r="H34">
         <v>100</v>
       </c>
       <c r="I34">
@@ -1164,20 +1183,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>123456</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
         <v>100</v>
       </c>
       <c r="I35">
@@ -1187,39 +1209,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H40" s="9"/>
       <c r="J40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="44" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
         <v>17</v>
       </c>
@@ -1228,19 +1250,23 @@
       <c r="G44" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="25" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="L44" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="15" t="s">
+      <c r="N44" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>7</v>
       </c>
@@ -1253,106 +1279,119 @@
       <c r="G45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="34"/>
+      <c r="K45" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="M45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="N45" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>123456</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G46" s="5">
         <v>123456</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46">
+      <c r="K46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46">
         <v>60</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>40</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>123456</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G47" s="5">
         <v>123456</v>
       </c>
       <c r="H47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47">
+      <c r="K47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47">
         <v>60</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>40</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <v>123456</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G48" s="5">
         <v>123456</v>
       </c>
       <c r="H48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48">
+      <c r="K48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48">
         <v>60</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>40</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>20</v>
       </c>
     </row>
@@ -1362,7 +1401,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="27"/>
+      <c r="I49" s="26"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
@@ -1370,15 +1409,15 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="27"/>
+      <c r="I50" s="26"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="21"/>
@@ -1386,17 +1425,17 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="9"/>
       <c r="F53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="L53" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -1412,13 +1451,13 @@
         <v>12</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -1426,13 +1465,13 @@
         <v>15</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1479,7 @@
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="6">
@@ -1456,17 +1495,17 @@
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1474,17 +1513,17 @@
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -1493,7 +1532,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D62" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62">
         <v>100</v>
@@ -1501,7 +1540,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D63" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63">
         <v>80</v>
@@ -1509,7 +1548,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D64" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F64">
         <v>20</v>
@@ -1521,13 +1560,13 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D66" s="11"/>
       <c r="F66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="H66" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -1594,11 +1633,11 @@
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F73" s="4">
         <v>1200.45</v>
@@ -1611,11 +1650,11 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F74" s="4">
         <v>1200.45</v>
@@ -1628,11 +1667,11 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F75" s="4">
         <v>1200.45</v>
